--- a/phd-thesis-lyx-template-main/Research%20Papers%20Robotic%20Fleets (version 1).xlsb.xlsx
+++ b/phd-thesis-lyx-template-main/Research%20Papers%20Robotic%20Fleets (version 1).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livemanchesterac-my.sharepoint.com/personal/alexander_morley_student_manchester_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\PhDMain\phd-thesis-lyx-template-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{AF08972A-3CA0-48AA-A528-DF06DD1C1D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68A0146-25AB-40BA-8176-7AA195A0D0EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC24B4B-6463-4F38-AD14-7983E501E6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="204">
   <si>
     <t>Title</t>
   </si>
@@ -739,10 +738,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,22 +1059,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H35" sqref="H34:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="56.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
-    <col min="8" max="8" width="47.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="80.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1254,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1355,7 +1350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1379,7 +1374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -1395,7 +1390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1437,7 +1432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1479,7 +1474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1500,7 +1495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1520,7 +1515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1537,7 +1532,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -1554,7 +1549,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -1599,7 +1594,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1613,7 +1608,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1627,7 +1622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -1659,7 +1654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -1673,7 +1668,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -1690,7 +1685,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -1701,7 +1696,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -1712,170 +1707,42 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>1996</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>71</v>
-      </c>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>152</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32">
-        <v>2024</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33">
-        <v>2024</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34">
-        <v>2023</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35">
-        <v>2024</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36">
-        <v>2024</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37">
-        <v>2022</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38">
-        <v>2022</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39">
-        <v>2021</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>99</v>
-      </c>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1902,16 +1769,6 @@
     <hyperlink ref="E24" r:id="rId21" xr:uid="{689C7BD0-F33A-4939-8C4D-83833E55DBF1}"/>
     <hyperlink ref="E25" r:id="rId22" xr:uid="{88AB7573-BE9E-4707-88DA-609601FE33F2}"/>
     <hyperlink ref="E26" r:id="rId23" tooltip="https://arxiv.org/pdf/1812.03828" xr:uid="{776C3F0E-283A-4D51-8E11-9066911E424C}"/>
-    <hyperlink ref="E30" r:id="rId24" xr:uid="{74C3B014-70C2-4AB5-89F3-A265586BE27B}"/>
-    <hyperlink ref="E31" r:id="rId25" xr:uid="{58A35F37-46A1-42D3-8E86-1B0BB84A2216}"/>
-    <hyperlink ref="E33" r:id="rId26" xr:uid="{37D560AC-B2AC-4241-A19E-F58AF775FB65}"/>
-    <hyperlink ref="E32" r:id="rId27" xr:uid="{E912E563-B608-43B9-A48D-81F7E9AAF0ED}"/>
-    <hyperlink ref="E34" r:id="rId28" xr:uid="{2A230893-D4B7-4FA7-82E6-91ACDA82D259}"/>
-    <hyperlink ref="E35" r:id="rId29" xr:uid="{4A7C6617-78FC-4612-8321-D674A38447AA}"/>
-    <hyperlink ref="E38" r:id="rId30" xr:uid="{DA352054-DD6F-46F3-A2B5-F6CFD3A154D7}"/>
-    <hyperlink ref="E37" r:id="rId31" xr:uid="{FCA7828E-A29E-49C9-8858-6024208CE7A0}"/>
-    <hyperlink ref="E36" r:id="rId32" xr:uid="{2F3F5FF6-0A63-4F2C-AA58-0B7F02A96ACD}"/>
-    <hyperlink ref="E39" r:id="rId33" location="fig1" xr:uid="{07276E74-B845-44DC-B945-A896156AFBE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1925,16 +1782,16 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="27.77734375" style="4" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="54.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="27.7109375" style="4" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="54.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>192</v>
       </c>
@@ -1947,7 +1804,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -1993,7 +1850,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>128</v>
       </c>
@@ -2004,7 +1861,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>120</v>
       </c>
@@ -2015,7 +1872,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
@@ -2026,7 +1883,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
@@ -2040,7 +1897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>131</v>
       </c>
@@ -2054,7 +1911,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>133</v>
       </c>
@@ -2074,7 +1931,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>139</v>
       </c>
@@ -2088,7 +1945,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>140</v>
       </c>
@@ -2105,7 +1962,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>144</v>
       </c>
@@ -2122,7 +1979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
@@ -2133,7 +1990,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>150</v>
       </c>
@@ -2144,7 +2001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>155</v>
       </c>
@@ -2158,7 +2015,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>162</v>
       </c>
@@ -2195,18 +2052,18 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="58.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="58.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>185</v>
       </c>
@@ -2220,7 +2077,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -2286,7 +2143,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>177</v>
       </c>
@@ -2309,7 +2166,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>182</v>
       </c>
@@ -2332,7 +2189,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>186</v>
       </c>
@@ -2355,7 +2212,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>197</v>
       </c>
@@ -2366,7 +2223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>199</v>
       </c>
@@ -2388,37 +2245,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83898B2-3CE4-4EFD-B74D-A914B83D4A50}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -2429,6 +2286,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051747AAC290C3F4B91E31A2506053D1E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2daf12c677e4e5e9c4b09eed6f2b0d1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e13fcba7-bba4-4b50-b13c-eb645ae03501" xmlns:ns4="3b356a75-da32-4b88-b926-3ea6c9215a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed4f6015e5a55e7015104dd10c43804b" ns3:_="" ns4:_="">
     <xsd:import namespace="e13fcba7-bba4-4b50-b13c-eb645ae03501"/>
@@ -2655,15 +2521,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2673,6 +2530,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DAE6E3-9540-43A2-82AE-EB93139D2C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B0CB58-5B44-4E13-AA6F-6A18F9B1D84C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2687,14 +2552,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DAE6E3-9540-43A2-82AE-EB93139D2C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
